--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-15_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-15_end.xlsx
@@ -1432,7 +1432,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  P’ei fu? Oh... does that mean “respect?” Sorry, I’m not so good with the Yen language. I’m pretty sure that’s what it means?
+    <t xml:space="preserve">[name="Amiya"]  P’ei fu? Oh... does that mean 'respect?' Sorry, I’m not so good with the Yen language. I’m pretty sure that’s what it means?
 </t>
   </si>
   <si>
@@ -1440,7 +1440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  ...Doesn’t matter. Because I’ve always “p’ei fu’d” Rosmontis.
+    <t xml:space="preserve">[name="Amiya"]  ...Doesn’t matter. Because I’ve always 'p’ei fu’d' Rosmontis.
 </t>
   </si>
   <si>
@@ -2208,7 +2208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="켈시"]  ……회색 갈기 봉우리에서 일곱 밤낮을 머무르며, 최강의 기사조차 매복전으로 농락했다는 소문은, 어쩌면 사실일지도 모르겠군.
+    <t xml:space="preserve">[name="켈시"]  ……회색 갈기 봉우리에서 일곱 밤낮을 머무르며, 최강의 출정 기사조차 매복전으로 농락했다는 소문은, 어쩌면 사실일지도 모르겠군.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-15_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-15_end.xlsx
@@ -1280,19 +1280,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  No problems yet... But... it’s really intense. I’ve never seen combat on this scale before...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  I’m due for a vacation if I make it back from this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Right. I’ll approve it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  But first... let’s knock out this team! Then if you want a raise, a vacation, a specific assignment, I’ll grant anything!
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  No problems yet... But... it's really intense. I've never seen combat on this scale before...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  I'm due for a vacation if I make it back from this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Right. I'll approve it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But first... let's knock out this team! Then if you want a raise, a vacation, a specific assignment, I'll grant anything!
 </t>
   </si>
   <si>
@@ -1300,15 +1300,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  Don’t get distracted! Back in formation!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  A major firefight by the east exit? Stay calm, push ahead slow. Don’t give them an opening!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  These don’t look like Ursus or Yen tactics. What’s going on? Who are they?
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Don't get distracted! Back in formation!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  A major firefight by the east exit? Stay calm, push ahead slow. Don't give them an opening!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  These don't look like Ursus or Yen tactics. What's going on? Who are they?
 </t>
   </si>
   <si>
@@ -1316,7 +1316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  No actual fighting...? Cowards! You’ll pay for underestimating the guerrillas! 
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  No actual fighting...? Cowards! You'll pay for underestimating the guerrillas! 
 </t>
   </si>
   <si>
@@ -1340,7 +1340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  Hold on. Something’s not right.
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Hold on. Something's not right.
 </t>
   </si>
   <si>
@@ -1348,7 +1348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  The guerrilla fighters are closing ranks! Now’s our best chance to break through!
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  The guerrilla fighters are closing ranks! Now's our best chance to break through!
 </t>
   </si>
   <si>
@@ -1360,19 +1360,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Roger. Rosmontis, let’s scan the area with our Arts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I can’t reach it. The enemy... is blocking me somehow.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Sarkaz casters. They’re the only ones who could interfere with Arts like Rosmontis’s.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Then it’s up to me...!
+    <t xml:space="preserve">[name="Amiya"]  Roger. Rosmontis, let's scan the area with our Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I can't reach it. The enemy... is blocking me somehow.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Sarkaz casters. They're the only ones who could interfere with Arts like Rosmontis's.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Then it's up to me...!
 </t>
   </si>
   <si>
@@ -1380,7 +1380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...We’ll be quick.
+    <t xml:space="preserve">[name="Kal'tsit"]  ...We'll be quick.
 </t>
   </si>
   <si>
@@ -1388,7 +1388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  They’re calm... some agitated. But they’re not fanatics. They’re... fortifying that point.
+    <t xml:space="preserve">[name="Amiya"]  They're calm... some agitated. But they're not fanatics. They're... fortifying that point.
 </t>
   </si>
   <si>
@@ -1396,11 +1396,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  The Doctor is right. It’s a trap.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I’m nearby. I’m coming.
+    <t xml:space="preserve">[name="Amiya"]  The Doctor is right. It's a trap.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I'm nearby. I'm coming.
 </t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Yes. I won’t smash the whole building. I’ll just destroy the level they’re on, so they won’t bother us.
+    <t xml:space="preserve">[name="Rosmontis"]  Yes. I won't smash the whole building. I'll just destroy the level they're on, so they won't bother us.
 </t>
   </si>
   <si>
@@ -1420,7 +1420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  ...Amiya, will you p’ei fu me then?
+    <t xml:space="preserve">[name="Rosmontis"]  ...Amiya, will you p'ei fu me then?
 </t>
   </si>
   <si>
@@ -1428,35 +1428,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I heard Blaze say there aren’t many people who can make you p’ei fu them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  P’ei fu? Oh... does that mean 'respect?' Sorry, I’m not so good with the Yen language. I’m pretty sure that’s what it means?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I don’t know, Amiya...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  ...Doesn’t matter. Because I’ve always 'p’ei fu’d' Rosmontis.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  You’re amazing, really. I couldn’t do what you do...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  I couldn’t bear that loss and loneliness.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  There’s no way I could live with it like you do, suffer through it like you do.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  You’re lying.
+    <t xml:space="preserve">[name="Rosmontis"]  I heard Blaze say there aren't many people who can make you p'ei fu them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  P'ei fu? Oh... does that mean 'respect?' Sorry, I'm not so good with the Yen language. I'm pretty sure that's what it means?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I don't know, Amiya...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Doesn't matter. Because I've always 'p'ei fu'd' Rosmontis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  You're amazing, really. I couldn't do what you do...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I couldn't bear that loss and loneliness.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  There's no way I could live with it like you do, suffer through it like you do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  You're lying.
 </t>
   </si>
   <si>
@@ -1464,15 +1464,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  But it doesn’t matter to me. Even if you’re a liar, you’re still Amiya to me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Someone could... p’ei fu... a person like me?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  It’s like you just said, Rosmontis. You’re Rosmontis, so I respect you. As both an elite operator and a friend.
+    <t xml:space="preserve">[name="Rosmontis"]  But it doesn't matter to me. Even if you're a liar, you're still Amiya to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Someone could... p'ei fu... a person like me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It's like you just said, Rosmontis. You're Rosmontis, so I respect you. As both an elite operator and a friend.
 </t>
   </si>
   <si>
@@ -1480,7 +1480,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Okay. We’ll keep at it.
+    <t xml:space="preserve">[name="Rosmontis"]  Okay. We'll keep at it.
 </t>
   </si>
   <si>
@@ -1488,7 +1488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  N-No! We can’t leave the area! We strike as soon as they show their faces! No one else falls out of contact!
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  N-No! We can't leave the area! We strike as soon as they show their faces! No one else falls out of contact!
 </t>
   </si>
   <si>
@@ -1504,11 +1504,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  We’ve gotta take her out!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  —A sword? A weapon? She’s pulling them out of the air...
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  We've gotta take her out!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  —A sword? A weapon? She's pulling them out of the air...
 </t>
   </si>
   <si>
@@ -1540,7 +1540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis is destroying the guerrillas’ ambush point. Watch for falling debris!
+    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis is destroying the guerrillas' ambush point. Watch for falling debris!
 </t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Assuming you’re talking about Rosmontis’s Arts, it may be time to explain it to you, now that you’ve seen it so many times.
+    <t xml:space="preserve">[name="Kal'tsit"]  Assuming you're talking about Rosmontis's Arts, it may be time to explain it to you, now that you've seen it so many times.
 </t>
   </si>
   <si>
@@ -1572,7 +1572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis was much more destructive before we put a weapon in her hands. A lot like being crushed beneath the treads of a nomadic city. All that’s left is a crying young girl alone in the ruins.
+    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis was much more destructive before we put a weapon in her hands. A lot like being crushed beneath the treads of a nomadic city. All that's left is a crying young girl alone in the ruins.
 </t>
   </si>
   <si>
@@ -1600,7 +1600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Let’s go, Dr. {@nickname}. No time to lose.
+    <t xml:space="preserve">[name="Kal'tsit"]  Let's go, Dr. {@nickname}. No time to lose.
 </t>
   </si>
   <si>
@@ -1616,7 +1616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Amiya, Dr. Kal'tsit, I’m ready.
+    <t xml:space="preserve">[name="Rosmontis"]  Amiya, Dr. Kal'tsit, I'm ready.
 </t>
   </si>
   <si>
@@ -1624,19 +1624,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  (Good, you’re with us. I’m okay. Doesn’t matter. You hide somewhere, don’t let them find you... we need you to regroup.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  (I know. We’ll get them. You stay quiet!)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  (I’m fine. No injuries. A little stone is nothing compared to an Ursus Fortcracker.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  (Don’t panic! I can stop it, you look for an opening!)
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  (Good, you're with us. I'm okay. Doesn't matter. You hide somewhere, don't let them find you... we need you to regroup.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  (I know. We'll get them. You stay quiet!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  (I'm fine. No injuries. A little stone is nothing compared to an Ursus Fortcracker.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  (Don't panic! I can stop it, you look for an opening!)
 </t>
   </si>
   <si>
@@ -1644,19 +1644,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  Whoever you are, you lost the guts to take us on now? Too scared of Patriot’s blood? Scared of his witchcraft?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  Thinking back to the time you fought the Sarkaz? You had them outnumbered, you could’ve won, but in the end you just ran up the casualties!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  But we’ll do you one better! You can’t break our shields, you can’t crack our armor! You’re nothing before the undying Patriot!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  The mightiest Ursus warrior... needs no spear or shield. He’ll stomp you to pieces.
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Whoever you are, you lost the guts to take us on now? Too scared of Patriot's blood? Scared of his witchcraft?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Thinking back to the time you fought the Sarkaz? You had them outnumbered, you could've won, but in the end you just ran up the casualties!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  But we'll do you one better! You can't break our shields, you can't crack our armor! You're nothing before the undying Patriot!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  The mightiest Ursus warrior... needs no spear or shield. He'll stomp you to pieces.
 </t>
   </si>
   <si>
@@ -1664,7 +1664,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  Our fighters will regroup here soon! You can’t run. Reunion will put you through hell!
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Our fighters will regroup here soon! You can't run. Reunion will put you through hell!
 </t>
   </si>
   <si>
@@ -1700,19 +1700,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  There’s a man behind you, and I’m going to break the device behind him.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  You think I’ll show you mercy just because you look like a kid?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  Don’t underestimate Patriot’s Guard! We’re the Aegis of the Infected... I’m here to stop your attack.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  If you attack the Infected, I’ll strangle you with my own two hands!
+    <t xml:space="preserve">[name="Rosmontis"]  There's a man behind you, and I'm going to break the device behind him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  You think I'll show you mercy just because you look like a kid?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Don't underestimate Patriot's Guard! We're the Aegis of the Infected... I'm here to stop your attack.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  If you attack the Infected, I'll strangle you with my own two hands!
 </t>
   </si>
   <si>
@@ -1720,7 +1720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  You... You’re the cat from before.
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  You... You're the cat from before.
 </t>
   </si>
   <si>
@@ -1728,11 +1728,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Runner"]  (Get out of here, guardian! Tell the others! I’ll be okay!)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  (That’s your job, not mine! You have to survive!)
+    <t xml:space="preserve">[name="Runner"]  (Get out of here, guardian! Tell the others! I'll be okay!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  (That's your job, not mine! You have to survive!)
 </t>
   </si>
   <si>
@@ -1740,7 +1740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Amiya. I’m out of options.
+    <t xml:space="preserve">[name="Rosmontis"]  Amiya. I'm out of options.
 </t>
   </si>
   <si>
@@ -1748,7 +1748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  He won’t die. But he may never walk again.
+    <t xml:space="preserve">[name="Rosmontis"]  He won't die. But he may never walk again.
 </t>
   </si>
   <si>
@@ -1760,7 +1760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  You, can’t.
+    <t xml:space="preserve">[name="???"]  You, can't.
 </t>
   </si>
   <si>
@@ -1784,7 +1784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  You, no, you and your team... You’re like...
+    <t xml:space="preserve">[name="Rosmontis"]  You, no, you and your team... You're like...
 </t>
   </si>
   <si>
@@ -1804,7 +1804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  That’s an order, Rosmontis.
+    <t xml:space="preserve">[name="Kal'tsit"]  That's an order, Rosmontis.
 </t>
   </si>
   <si>
@@ -1828,7 +1828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  I don’t care, who, you are.
+    <t xml:space="preserve">[name="Patriot"]  I don't care, who, you are.
 </t>
   </si>
   <si>
@@ -1836,7 +1836,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Are you sure you don’t care?
+    <t xml:space="preserve">[name="Kal'tsit"]  Are you sure you don't care?
 </t>
   </si>
   <si>
@@ -1860,7 +1860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  It’s been a while.
+    <t xml:space="preserve">[name="Kal'tsit"]  It's been a while.
 </t>
   </si>
   <si>
